--- a/documents/Power Table.xlsx
+++ b/documents/Power Table.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Flexi-TEER\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2299CB82-A0B8-4360-9776-74A97C948452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EAD5837-DEFC-426B-8671-51F8E4CFE7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Rail</t>
   </si>
@@ -74,45 +73,15 @@
     <t>HEF4067BT,653</t>
   </si>
   <si>
-    <t>number of components</t>
-  </si>
-  <si>
     <t>5V</t>
   </si>
   <si>
-    <t>1 mA</t>
-  </si>
-  <si>
-    <t>0.5 mA</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>power consumed per component</t>
-  </si>
-  <si>
-    <t>60uA</t>
-  </si>
-  <si>
     <t>&gt;1.1 V = HIGH ; &lt;0.3V = LOW</t>
   </si>
   <si>
-    <t>14.4mA + 0.5mA</t>
-  </si>
-  <si>
-    <t>0.6mA</t>
-  </si>
-  <si>
-    <t>14.4mA + 1mA</t>
-  </si>
-  <si>
-    <t>3.6mA</t>
-  </si>
-  <si>
-    <t>0.15mA</t>
-  </si>
-  <si>
     <t>&gt;4V = HIGH, &lt;1V = LOW</t>
   </si>
   <si>
@@ -122,19 +91,37 @@
     <t>TXB0106PWR</t>
   </si>
   <si>
-    <t>0.01mA</t>
+    <t>power consumed per component, mA</t>
+  </si>
+  <si>
+    <t>Number of components</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Total current consumption, mA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,9 +154,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,40 +477,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0439D6-C268-4E5B-ABED-632B38C55DC9}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -524,16 +523,20 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.06</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>0.06</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -541,16 +544,21 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f xml:space="preserve"> 14.4 + 0.5</f>
+        <v>14.9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">D3*C3</f>
+        <v>29.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -558,16 +566,20 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -575,16 +587,20 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -592,16 +608,20 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -609,16 +629,21 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>14.4 + 1</f>
+        <v>15.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -626,16 +651,20 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -643,16 +672,20 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -660,31 +693,49 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.15</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(E2:E11)</f>
+        <v>53.72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Power Table.xlsx
+++ b/documents/Power Table.xlsx
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Rail</t>
   </si>
   <si>
-    <t>component</t>
-  </si>
-  <si>
     <t>digital logic voltage</t>
   </si>
   <si>
@@ -91,23 +88,77 @@
     <t>TXB0106PWR</t>
   </si>
   <si>
-    <t>power consumed per component, mA</t>
-  </si>
-  <si>
-    <t>Number of components</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
-    <t>Total current consumption, mA</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Negative -5V generator</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Current per component, mA</t>
+  </si>
+  <si>
+    <t>Total current,  mA</t>
+  </si>
+  <si>
+    <t>Low-power dual Op Amp</t>
+  </si>
+  <si>
+    <t>Linear Tech</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>FastFET Op Amps (dual)</t>
+  </si>
+  <si>
+    <t>FastFET Op Amp (single)</t>
+  </si>
+  <si>
+    <t>Differential ADC Driver</t>
+  </si>
+  <si>
+    <t>I2C 12-Bit ADCs</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>16-channel MUX</t>
+  </si>
+  <si>
+    <t>Nxperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level translator </t>
+  </si>
+  <si>
+    <t>Component PN</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +175,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,10 +216,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -164,8 +230,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,264 +547,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
+      </c>
+      <c r="G2">
+        <f>F2*E2</f>
+        <v>0.06</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> 7.2*2 + 0.5</f>
+        <v>14.9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">F3*E3</f>
+        <v>29.8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.06</v>
-      </c>
-      <c r="E2">
-        <f>D2*C2</f>
-        <v>0.06</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4">
+        <f>7.2 + 1</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4">
+        <f>F4*E4</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f xml:space="preserve"> 14.4 + 0.5</f>
-        <v>14.9</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">D3*C3</f>
-        <v>29.8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3.6</v>
+      </c>
+      <c r="G6">
+        <f>F6*E6</f>
+        <v>3.6</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0.6</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="E5">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="D7">
-        <f>14.4 + 1</f>
-        <v>15.4</v>
-      </c>
-      <c r="E7">
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>15.4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>3.6</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.15</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0.15</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.01</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM(E2:E11)</f>
-        <v>53.72</v>
-      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(G2:G11)</f>
+        <v>47.870000000000005</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="link"/>
+    <hyperlink ref="D3" r:id="rId2" display="link"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8" display="link"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>